--- a/data/fungicide-sensitivity-2019_exp-01_azoxystrobin.xlsx
+++ b/data/fungicide-sensitivity-2019_exp-01_azoxystrobin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB85F775-937F-4504-9275-A64DCDF0C4AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DDAF66-B8CE-4B11-90B0-C9FC009896D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,16 +31,16 @@
     <t>isolate</t>
   </si>
   <si>
-    <t>Rep</t>
+    <t>rep</t>
   </si>
   <si>
-    <t>Dose</t>
+    <t>dose</t>
   </si>
   <si>
-    <t>A</t>
+    <t>length_a</t>
   </si>
   <si>
-    <t>B</t>
+    <t>length_b</t>
   </si>
 </sst>
 </file>
@@ -418,11 +418,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="A182" sqref="A182:E289"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -443,7 +447,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -452,15 +456,15 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>39.880000000000003</v>
+        <v>29.37</v>
       </c>
       <c r="E2">
-        <v>41.28</v>
+        <v>26.84</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -469,32 +473,26 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>43.82</v>
+        <v>26.1</v>
       </c>
       <c r="E3">
-        <v>40.42</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
         <v>0</v>
-      </c>
-      <c r="D4">
-        <v>42.48</v>
-      </c>
-      <c r="E4">
-        <v>42.49</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -503,15 +501,15 @@
         <v>0.1</v>
       </c>
       <c r="D5">
-        <v>32.54</v>
+        <v>27.07</v>
       </c>
       <c r="E5">
-        <v>35.29</v>
+        <v>25.62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -520,15 +518,15 @@
         <v>0.1</v>
       </c>
       <c r="D6">
-        <v>37.35</v>
+        <v>24.73</v>
       </c>
       <c r="E6">
-        <v>34.08</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -537,15 +535,15 @@
         <v>0.1</v>
       </c>
       <c r="D7">
-        <v>36.61</v>
+        <v>20.21</v>
       </c>
       <c r="E7">
-        <v>36.19</v>
+        <v>19.84</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -554,15 +552,15 @@
         <v>0.5</v>
       </c>
       <c r="D8">
-        <v>28.8</v>
+        <v>23.69</v>
       </c>
       <c r="E8">
-        <v>28.2</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -571,15 +569,15 @@
         <v>0.5</v>
       </c>
       <c r="D9">
-        <v>30.56</v>
+        <v>21.66</v>
       </c>
       <c r="E9">
-        <v>29.74</v>
+        <v>20.61</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -588,15 +586,15 @@
         <v>0.5</v>
       </c>
       <c r="D10">
-        <v>27.97</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="E10">
-        <v>32.35</v>
+        <v>14.91</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -605,15 +603,15 @@
         <v>0.1</v>
       </c>
       <c r="D11">
-        <v>23.99</v>
+        <v>18.61</v>
       </c>
       <c r="E11">
-        <v>24.02</v>
+        <v>18.88</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -622,15 +620,15 @@
         <v>0.1</v>
       </c>
       <c r="D12">
-        <v>23.9</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="E12">
-        <v>21.74</v>
+        <v>18.14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -639,15 +637,15 @@
         <v>0.1</v>
       </c>
       <c r="D13">
-        <v>25.46</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="E13">
-        <v>23.8</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -656,15 +654,15 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>23.85</v>
+        <v>20.62</v>
       </c>
       <c r="E14">
-        <v>22.9</v>
+        <v>21.79</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -673,15 +671,15 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>26.53</v>
+        <v>17.88</v>
       </c>
       <c r="E15">
-        <v>22.47</v>
+        <v>17.34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -690,15 +688,15 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>26.12</v>
+        <v>22.2</v>
       </c>
       <c r="E16">
-        <v>26.52</v>
+        <v>19.53</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -715,7 +713,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -732,7 +730,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1055,7 +1053,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1064,15 +1062,15 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>37.5</v>
+        <v>38.69</v>
       </c>
       <c r="E38">
-        <v>41.14</v>
+        <v>39.270000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -1081,15 +1079,15 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>39.96</v>
+        <v>44.39</v>
       </c>
       <c r="E39">
-        <v>38.979999999999997</v>
+        <v>45.67</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -1098,15 +1096,15 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>40.700000000000003</v>
+        <v>45.53</v>
       </c>
       <c r="E40">
-        <v>41.87</v>
+        <v>42.17</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1115,15 +1113,15 @@
         <v>0.1</v>
       </c>
       <c r="D41">
-        <v>39.35</v>
+        <v>39.369999999999997</v>
       </c>
       <c r="E41">
-        <v>39.44</v>
+        <v>38.020000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -1132,15 +1130,15 @@
         <v>0.1</v>
       </c>
       <c r="D42">
-        <v>40.81</v>
+        <v>40.47</v>
       </c>
       <c r="E42">
-        <v>41.25</v>
+        <v>41.28</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -1149,15 +1147,15 @@
         <v>0.1</v>
       </c>
       <c r="D43">
-        <v>45.74</v>
+        <v>40.380000000000003</v>
       </c>
       <c r="E43">
-        <v>45.74</v>
+        <v>39.31</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1166,15 +1164,15 @@
         <v>0.5</v>
       </c>
       <c r="D44">
-        <v>42.41</v>
+        <v>30.59</v>
       </c>
       <c r="E44">
-        <v>42.76</v>
+        <v>31.96</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -1183,15 +1181,15 @@
         <v>0.5</v>
       </c>
       <c r="D45">
-        <v>44.48</v>
+        <v>33.11</v>
       </c>
       <c r="E45">
-        <v>44.48</v>
+        <v>36.590000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -1200,15 +1198,15 @@
         <v>0.5</v>
       </c>
       <c r="D46">
-        <v>42.81</v>
+        <v>36.01</v>
       </c>
       <c r="E46">
-        <v>42.18</v>
+        <v>36.47</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1217,15 +1215,15 @@
         <v>0.1</v>
       </c>
       <c r="D47">
-        <v>41.55</v>
+        <v>26.44</v>
       </c>
       <c r="E47">
-        <v>40.299999999999997</v>
+        <v>26.14</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -1234,15 +1232,15 @@
         <v>0.1</v>
       </c>
       <c r="D48">
-        <v>42.62</v>
+        <v>30.93</v>
       </c>
       <c r="E48">
-        <v>42.77</v>
+        <v>29.95</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -1251,15 +1249,15 @@
         <v>0.1</v>
       </c>
       <c r="D49">
-        <v>43.83</v>
+        <v>29.75</v>
       </c>
       <c r="E49">
-        <v>43</v>
+        <v>30.81</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1268,15 +1266,15 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>39.5</v>
+        <v>27.39</v>
       </c>
       <c r="E50">
-        <v>39.79</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -1285,15 +1283,15 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>41.53</v>
+        <v>31.77</v>
       </c>
       <c r="E51">
-        <v>41.72</v>
+        <v>27.28</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -1302,15 +1300,15 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>41.82</v>
+        <v>25.6</v>
       </c>
       <c r="E52">
-        <v>41.66</v>
+        <v>27.34</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1327,7 +1325,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -1344,7 +1342,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -1361,7 +1359,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1370,15 +1368,15 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>34.32</v>
+        <v>39.880000000000003</v>
       </c>
       <c r="E56">
-        <v>36.67</v>
+        <v>41.28</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -1387,15 +1385,15 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>33.43</v>
+        <v>43.82</v>
       </c>
       <c r="E57">
-        <v>33.86</v>
+        <v>40.42</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -1404,15 +1402,15 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>32.93</v>
+        <v>42.48</v>
       </c>
       <c r="E58">
-        <v>33.200000000000003</v>
+        <v>42.49</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1421,15 +1419,15 @@
         <v>0.1</v>
       </c>
       <c r="D59">
-        <v>26.65</v>
+        <v>32.54</v>
       </c>
       <c r="E59">
-        <v>28.34</v>
+        <v>35.29</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -1438,15 +1436,15 @@
         <v>0.1</v>
       </c>
       <c r="D60">
-        <v>32.840000000000003</v>
+        <v>37.35</v>
       </c>
       <c r="E60">
-        <v>34.15</v>
+        <v>34.08</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B61">
         <v>3</v>
@@ -1455,15 +1453,15 @@
         <v>0.1</v>
       </c>
       <c r="D61">
-        <v>31.08</v>
+        <v>36.61</v>
       </c>
       <c r="E61">
-        <v>31.07</v>
+        <v>36.19</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1472,15 +1470,15 @@
         <v>0.5</v>
       </c>
       <c r="D62">
-        <v>21.2</v>
+        <v>28.8</v>
       </c>
       <c r="E62">
-        <v>21.22</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -1489,15 +1487,15 @@
         <v>0.5</v>
       </c>
       <c r="D63">
-        <v>21.32</v>
+        <v>30.56</v>
       </c>
       <c r="E63">
-        <v>21.34</v>
+        <v>29.74</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -1506,15 +1504,15 @@
         <v>0.5</v>
       </c>
       <c r="D64">
-        <v>19.149999999999999</v>
+        <v>27.97</v>
       </c>
       <c r="E64">
-        <v>20.73</v>
+        <v>32.35</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1523,15 +1521,15 @@
         <v>0.1</v>
       </c>
       <c r="D65">
-        <v>20.79</v>
+        <v>23.99</v>
       </c>
       <c r="E65">
-        <v>20.81</v>
+        <v>24.02</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -1540,15 +1538,15 @@
         <v>0.1</v>
       </c>
       <c r="D66">
-        <v>15.79</v>
+        <v>23.9</v>
       </c>
       <c r="E66">
-        <v>15.7</v>
+        <v>21.74</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -1557,15 +1555,15 @@
         <v>0.1</v>
       </c>
       <c r="D67">
-        <v>16.64</v>
+        <v>25.46</v>
       </c>
       <c r="E67">
-        <v>15.38</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1574,15 +1572,15 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>21.79</v>
+        <v>23.85</v>
       </c>
       <c r="E68">
-        <v>21.06</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -1591,15 +1589,15 @@
         <v>1</v>
       </c>
       <c r="D69">
-        <v>20.63</v>
+        <v>26.53</v>
       </c>
       <c r="E69">
-        <v>20.77</v>
+        <v>22.47</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -1608,15 +1606,15 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>17.399999999999999</v>
+        <v>26.12</v>
       </c>
       <c r="E70">
-        <v>17.38</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -1625,15 +1623,15 @@
         <v>10</v>
       </c>
       <c r="D71">
-        <v>16.16</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>16.170000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -1642,15 +1640,15 @@
         <v>10</v>
       </c>
       <c r="D72">
-        <v>8.98</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>8.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -1659,15 +1657,15 @@
         <v>10</v>
       </c>
       <c r="D73">
-        <v>13.05</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>12.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -1676,15 +1674,15 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>37.409999999999997</v>
+        <v>34.32</v>
       </c>
       <c r="E74">
-        <v>38.200000000000003</v>
+        <v>36.67</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -1693,15 +1691,15 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>34.729999999999997</v>
+        <v>33.43</v>
       </c>
       <c r="E75">
-        <v>37.119999999999997</v>
+        <v>33.86</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -1710,15 +1708,15 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>36.479999999999997</v>
+        <v>32.93</v>
       </c>
       <c r="E76">
-        <v>37.22</v>
+        <v>33.200000000000003</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -1727,15 +1725,15 @@
         <v>0.1</v>
       </c>
       <c r="D77">
-        <v>37.299999999999997</v>
+        <v>26.65</v>
       </c>
       <c r="E77">
-        <v>36.42</v>
+        <v>28.34</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -1744,15 +1742,15 @@
         <v>0.1</v>
       </c>
       <c r="D78">
-        <v>36.68</v>
+        <v>32.840000000000003</v>
       </c>
       <c r="E78">
-        <v>38.11</v>
+        <v>34.15</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -1761,15 +1759,15 @@
         <v>0.1</v>
       </c>
       <c r="D79">
-        <v>32.33</v>
+        <v>31.08</v>
       </c>
       <c r="E79">
-        <v>33.72</v>
+        <v>31.07</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -1778,15 +1776,15 @@
         <v>0.5</v>
       </c>
       <c r="D80">
-        <v>25.79</v>
+        <v>21.2</v>
       </c>
       <c r="E80">
-        <v>27.17</v>
+        <v>21.22</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -1795,15 +1793,15 @@
         <v>0.5</v>
       </c>
       <c r="D81">
-        <v>27.78</v>
+        <v>21.32</v>
       </c>
       <c r="E81">
-        <v>27.57</v>
+        <v>21.34</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B82">
         <v>3</v>
@@ -1812,15 +1810,15 @@
         <v>0.5</v>
       </c>
       <c r="D82">
-        <v>22.71</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="E82">
-        <v>22.74</v>
+        <v>20.73</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -1829,15 +1827,15 @@
         <v>0.1</v>
       </c>
       <c r="D83">
-        <v>22.08</v>
+        <v>20.79</v>
       </c>
       <c r="E83">
-        <v>21.91</v>
+        <v>20.81</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -1846,15 +1844,15 @@
         <v>0.1</v>
       </c>
       <c r="D84">
-        <v>20.85</v>
+        <v>15.79</v>
       </c>
       <c r="E84">
-        <v>20.86</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B85">
         <v>3</v>
@@ -1863,15 +1861,15 @@
         <v>0.1</v>
       </c>
       <c r="D85">
-        <v>19.78</v>
+        <v>16.64</v>
       </c>
       <c r="E85">
-        <v>19.8</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -1880,15 +1878,15 @@
         <v>1</v>
       </c>
       <c r="D86">
-        <v>19.72</v>
+        <v>21.79</v>
       </c>
       <c r="E86">
-        <v>21.93</v>
+        <v>21.06</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -1897,15 +1895,15 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>19.72</v>
+        <v>20.63</v>
       </c>
       <c r="E87">
-        <v>16.64</v>
+        <v>20.77</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -1914,15 +1912,15 @@
         <v>1</v>
       </c>
       <c r="D88">
-        <v>21.37</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E88">
-        <v>20.46</v>
+        <v>17.38</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -1931,15 +1929,15 @@
         <v>10</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>16.16</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>16.170000000000002</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -1948,15 +1946,15 @@
         <v>10</v>
       </c>
       <c r="D90">
-        <v>18.850000000000001</v>
+        <v>8.98</v>
       </c>
       <c r="E90">
-        <v>18.37</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B91">
         <v>3</v>
@@ -1965,15 +1963,15 @@
         <v>10</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>13.05</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>12.81</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -1982,15 +1980,15 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>36.1</v>
+        <v>34.28</v>
       </c>
       <c r="E92">
-        <v>40.29</v>
+        <v>33.880000000000003</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -1999,15 +1997,15 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>31.07</v>
+        <v>39.44</v>
       </c>
       <c r="E93">
-        <v>31.69</v>
+        <v>39.659999999999997</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -2016,15 +2014,15 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>37.380000000000003</v>
+        <v>42.57</v>
       </c>
       <c r="E94">
-        <v>36.770000000000003</v>
+        <v>42.58</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -2033,15 +2031,15 @@
         <v>0.1</v>
       </c>
       <c r="D95">
-        <v>32.26</v>
+        <v>35.130000000000003</v>
       </c>
       <c r="E95">
-        <v>32.700000000000003</v>
+        <v>33.96</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -2050,15 +2048,15 @@
         <v>0.1</v>
       </c>
       <c r="D96">
-        <v>33.61</v>
+        <v>38.049999999999997</v>
       </c>
       <c r="E96">
-        <v>33.58</v>
+        <v>39.94</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B97">
         <v>3</v>
@@ -2067,15 +2065,15 @@
         <v>0.1</v>
       </c>
       <c r="D97">
-        <v>34.020000000000003</v>
+        <v>40.25</v>
       </c>
       <c r="E97">
-        <v>34.43</v>
+        <v>37.700000000000003</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -2084,15 +2082,15 @@
         <v>0.5</v>
       </c>
       <c r="D98">
-        <v>23.78</v>
+        <v>30.97</v>
       </c>
       <c r="E98">
-        <v>19.07</v>
+        <v>31.75</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -2101,15 +2099,15 @@
         <v>0.5</v>
       </c>
       <c r="D99">
-        <v>27.15</v>
+        <v>32.74</v>
       </c>
       <c r="E99">
-        <v>26.28</v>
+        <v>33.770000000000003</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -2118,15 +2116,15 @@
         <v>0.5</v>
       </c>
       <c r="D100">
-        <v>25.75</v>
+        <v>32.729999999999997</v>
       </c>
       <c r="E100">
-        <v>25.77</v>
+        <v>30.42</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -2135,15 +2133,15 @@
         <v>0.1</v>
       </c>
       <c r="D101">
-        <v>19.100000000000001</v>
+        <v>28.22</v>
       </c>
       <c r="E101">
-        <v>19.79</v>
+        <v>27.44</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -2152,15 +2150,15 @@
         <v>0.1</v>
       </c>
       <c r="D102">
-        <v>21.58</v>
+        <v>27.83</v>
       </c>
       <c r="E102">
-        <v>21.81</v>
+        <v>27.13</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B103">
         <v>3</v>
@@ -2169,15 +2167,15 @@
         <v>0.1</v>
       </c>
       <c r="D103">
-        <v>19.7</v>
+        <v>29.75</v>
       </c>
       <c r="E103">
-        <v>21.04</v>
+        <v>26.14</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -2186,15 +2184,15 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>21.63</v>
+        <v>26.25</v>
       </c>
       <c r="E104">
-        <v>21.13</v>
+        <v>28.06</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -2203,15 +2201,15 @@
         <v>1</v>
       </c>
       <c r="D105">
-        <v>24.4</v>
+        <v>33.83</v>
       </c>
       <c r="E105">
-        <v>23.2</v>
+        <v>34.229999999999997</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B106">
         <v>3</v>
@@ -2220,15 +2218,15 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>21.95</v>
+        <v>24.03</v>
       </c>
       <c r="E106">
-        <v>20.37</v>
+        <v>23.29</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -2245,7 +2243,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -2262,7 +2260,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -2279,7 +2277,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -2288,15 +2286,15 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>31.92</v>
+        <v>37.409999999999997</v>
       </c>
       <c r="E110">
-        <v>34.340000000000003</v>
+        <v>38.200000000000003</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -2305,15 +2303,15 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>34.24</v>
+        <v>34.729999999999997</v>
       </c>
       <c r="E111">
-        <v>34.450000000000003</v>
+        <v>37.119999999999997</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B112">
         <v>3</v>
@@ -2322,15 +2320,15 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>34.799999999999997</v>
+        <v>36.479999999999997</v>
       </c>
       <c r="E112">
-        <v>36.56</v>
+        <v>37.22</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -2339,15 +2337,15 @@
         <v>0.1</v>
       </c>
       <c r="D113">
-        <v>32.409999999999997</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="E113">
-        <v>33.229999999999997</v>
+        <v>36.42</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -2356,15 +2354,15 @@
         <v>0.1</v>
       </c>
       <c r="D114">
-        <v>33.659999999999997</v>
+        <v>36.68</v>
       </c>
       <c r="E114">
-        <v>31.93</v>
+        <v>38.11</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B115">
         <v>3</v>
@@ -2373,15 +2371,15 @@
         <v>0.1</v>
       </c>
       <c r="D115">
-        <v>27.65</v>
+        <v>32.33</v>
       </c>
       <c r="E115">
-        <v>29.28</v>
+        <v>33.72</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -2390,15 +2388,15 @@
         <v>0.5</v>
       </c>
       <c r="D116">
-        <v>25.05</v>
+        <v>25.79</v>
       </c>
       <c r="E116">
-        <v>24.48</v>
+        <v>27.17</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -2407,15 +2405,15 @@
         <v>0.5</v>
       </c>
       <c r="D117">
-        <v>25.77</v>
+        <v>27.78</v>
       </c>
       <c r="E117">
-        <v>27.03</v>
+        <v>27.57</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B118">
         <v>3</v>
@@ -2424,15 +2422,15 @@
         <v>0.5</v>
       </c>
       <c r="D118">
-        <v>25.85</v>
+        <v>22.71</v>
       </c>
       <c r="E118">
-        <v>26.11</v>
+        <v>22.74</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -2441,15 +2439,15 @@
         <v>0.1</v>
       </c>
       <c r="D119">
-        <v>19.72</v>
+        <v>22.08</v>
       </c>
       <c r="E119">
-        <v>20.25</v>
+        <v>21.91</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -2458,15 +2456,15 @@
         <v>0.1</v>
       </c>
       <c r="D120">
-        <v>21.79</v>
+        <v>20.85</v>
       </c>
       <c r="E120">
-        <v>21.83</v>
+        <v>20.86</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B121">
         <v>3</v>
@@ -2475,15 +2473,15 @@
         <v>0.1</v>
       </c>
       <c r="D121">
-        <v>20.68</v>
+        <v>19.78</v>
       </c>
       <c r="E121">
-        <v>19.78</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -2492,15 +2490,15 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>23.93</v>
+        <v>19.72</v>
       </c>
       <c r="E122">
-        <v>24.92</v>
+        <v>21.93</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B123">
         <v>2</v>
@@ -2509,15 +2507,15 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>24.43</v>
+        <v>19.72</v>
       </c>
       <c r="E123">
-        <v>23.33</v>
+        <v>16.64</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B124">
         <v>3</v>
@@ -2526,15 +2524,15 @@
         <v>1</v>
       </c>
       <c r="D124">
-        <v>21.48</v>
+        <v>21.37</v>
       </c>
       <c r="E124">
-        <v>22.15</v>
+        <v>20.46</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -2551,7 +2549,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B126">
         <v>2</v>
@@ -2560,15 +2558,15 @@
         <v>10</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>18.37</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B127">
         <v>3</v>
@@ -2585,7 +2583,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -2594,15 +2592,15 @@
         <v>0</v>
       </c>
       <c r="D128">
-        <v>37.44</v>
+        <v>43.35</v>
       </c>
       <c r="E128">
-        <v>36.93</v>
+        <v>40.72</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B129">
         <v>2</v>
@@ -2611,15 +2609,15 @@
         <v>0</v>
       </c>
       <c r="D129">
-        <v>32.46</v>
+        <v>37.479999999999997</v>
       </c>
       <c r="E129">
-        <v>32.01</v>
+        <v>37.68</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B130">
         <v>3</v>
@@ -2628,15 +2626,15 @@
         <v>0</v>
       </c>
       <c r="D130">
-        <v>33.36</v>
+        <v>28.01</v>
       </c>
       <c r="E130">
-        <v>30.02</v>
+        <v>26.58</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -2645,15 +2643,15 @@
         <v>0.1</v>
       </c>
       <c r="D131">
-        <v>36.28</v>
+        <v>39.82</v>
       </c>
       <c r="E131">
-        <v>36.299999999999997</v>
+        <v>39.61</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -2662,15 +2660,15 @@
         <v>0.1</v>
       </c>
       <c r="D132">
-        <v>35.369999999999997</v>
+        <v>37.270000000000003</v>
       </c>
       <c r="E132">
-        <v>33.43</v>
+        <v>37.26</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B133">
         <v>3</v>
@@ -2679,15 +2677,15 @@
         <v>0.1</v>
       </c>
       <c r="D133">
-        <v>32.43</v>
+        <v>28.48</v>
       </c>
       <c r="E133">
-        <v>32.26</v>
+        <v>30.31</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -2696,15 +2694,15 @@
         <v>0.5</v>
       </c>
       <c r="D134">
-        <v>24.05</v>
+        <v>31.61</v>
       </c>
       <c r="E134">
-        <v>25.26</v>
+        <v>31.45</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B135">
         <v>2</v>
@@ -2713,15 +2711,15 @@
         <v>0.5</v>
       </c>
       <c r="D135">
-        <v>22.9</v>
+        <v>26.09</v>
       </c>
       <c r="E135">
-        <v>21.37</v>
+        <v>27.22</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B136">
         <v>3</v>
@@ -2730,15 +2728,15 @@
         <v>0.5</v>
       </c>
       <c r="D136">
+        <v>21.88</v>
+      </c>
+      <c r="E136">
         <v>22.78</v>
-      </c>
-      <c r="E136">
-        <v>18.72</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -2747,15 +2745,15 @@
         <v>0.1</v>
       </c>
       <c r="D137">
-        <v>16.91</v>
+        <v>24.92</v>
       </c>
       <c r="E137">
-        <v>16.920000000000002</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B138">
         <v>2</v>
@@ -2764,15 +2762,15 @@
         <v>0.1</v>
       </c>
       <c r="D138">
-        <v>14.81</v>
+        <v>17.32</v>
       </c>
       <c r="E138">
-        <v>17.399999999999999</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B139">
         <v>3</v>
@@ -2781,15 +2779,15 @@
         <v>0.1</v>
       </c>
       <c r="D139">
-        <v>18.739999999999998</v>
+        <v>18.78</v>
       </c>
       <c r="E139">
-        <v>16.22</v>
+        <v>20.440000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -2798,26 +2796,32 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>18.46</v>
+        <v>26.72</v>
       </c>
       <c r="E140">
-        <v>18.11</v>
+        <v>26.72</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B141">
         <v>2</v>
       </c>
       <c r="C141">
         <v>1</v>
+      </c>
+      <c r="D141">
+        <v>23.81</v>
+      </c>
+      <c r="E141">
+        <v>24.84</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B142">
         <v>3</v>
@@ -2826,15 +2830,15 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>20.64</v>
+        <v>23.85</v>
       </c>
       <c r="E142">
-        <v>17.190000000000001</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -2851,7 +2855,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B144">
         <v>2</v>
@@ -2868,7 +2872,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B145">
         <v>3</v>
@@ -2885,7 +2889,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -2894,15 +2898,15 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <v>32.729999999999997</v>
+        <v>36.1</v>
       </c>
       <c r="E146">
-        <v>33.43</v>
+        <v>40.29</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B147">
         <v>2</v>
@@ -2911,15 +2915,15 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <v>36.869999999999997</v>
+        <v>31.07</v>
       </c>
       <c r="E147">
-        <v>36.32</v>
+        <v>31.69</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B148">
         <v>3</v>
@@ -2928,15 +2932,15 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>34.049999999999997</v>
+        <v>37.380000000000003</v>
       </c>
       <c r="E148">
-        <v>34.26</v>
+        <v>36.770000000000003</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -2945,15 +2949,15 @@
         <v>0.1</v>
       </c>
       <c r="D149">
-        <v>32.4</v>
+        <v>32.26</v>
       </c>
       <c r="E149">
-        <v>31.23</v>
+        <v>32.700000000000003</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B150">
         <v>2</v>
@@ -2962,15 +2966,15 @@
         <v>0.1</v>
       </c>
       <c r="D150">
-        <v>30.24</v>
+        <v>33.61</v>
       </c>
       <c r="E150">
-        <v>29.79</v>
+        <v>33.58</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B151">
         <v>3</v>
@@ -2979,15 +2983,15 @@
         <v>0.1</v>
       </c>
       <c r="D151">
-        <v>30.36</v>
+        <v>34.020000000000003</v>
       </c>
       <c r="E151">
-        <v>31.38</v>
+        <v>34.43</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -2996,15 +3000,15 @@
         <v>0.5</v>
       </c>
       <c r="D152">
-        <v>22.37</v>
+        <v>23.78</v>
       </c>
       <c r="E152">
-        <v>23.18</v>
+        <v>19.07</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B153">
         <v>2</v>
@@ -3013,15 +3017,15 @@
         <v>0.5</v>
       </c>
       <c r="D153">
-        <v>22.93</v>
+        <v>27.15</v>
       </c>
       <c r="E153">
-        <v>23.66</v>
+        <v>26.28</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B154">
         <v>3</v>
@@ -3030,15 +3034,15 @@
         <v>0.5</v>
       </c>
       <c r="D154">
-        <v>22.28</v>
+        <v>25.75</v>
       </c>
       <c r="E154">
-        <v>21.48</v>
+        <v>25.77</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -3047,15 +3051,15 @@
         <v>0.1</v>
       </c>
       <c r="D155">
-        <v>21.75</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="E155">
-        <v>19.579999999999998</v>
+        <v>19.79</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B156">
         <v>2</v>
@@ -3064,15 +3068,15 @@
         <v>0.1</v>
       </c>
       <c r="D156">
-        <v>16.91</v>
+        <v>21.58</v>
       </c>
       <c r="E156">
-        <v>17.09</v>
+        <v>21.81</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B157">
         <v>3</v>
@@ -3081,15 +3085,15 @@
         <v>0.1</v>
       </c>
       <c r="D157">
-        <v>17.149999999999999</v>
+        <v>19.7</v>
       </c>
       <c r="E157">
-        <v>17.88</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -3098,15 +3102,15 @@
         <v>1</v>
       </c>
       <c r="D158">
-        <v>20.85</v>
+        <v>21.63</v>
       </c>
       <c r="E158">
-        <v>22.41</v>
+        <v>21.13</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B159">
         <v>2</v>
@@ -3115,15 +3119,15 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>20.38</v>
+        <v>24.4</v>
       </c>
       <c r="E159">
-        <v>19.27</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B160">
         <v>3</v>
@@ -3132,15 +3136,15 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>17.739999999999998</v>
+        <v>21.95</v>
       </c>
       <c r="E160">
-        <v>18.68</v>
+        <v>20.37</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -3157,7 +3161,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -3174,7 +3178,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B163">
         <v>3</v>
@@ -3191,7 +3195,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -3200,15 +3204,15 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>37.54</v>
+        <v>31.92</v>
       </c>
       <c r="E164">
-        <v>41.17</v>
+        <v>34.340000000000003</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B165">
         <v>2</v>
@@ -3217,15 +3221,15 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>32.549999999999997</v>
+        <v>34.24</v>
       </c>
       <c r="E165">
-        <v>34.840000000000003</v>
+        <v>34.450000000000003</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B166">
         <v>3</v>
@@ -3234,15 +3238,15 @@
         <v>0</v>
       </c>
       <c r="D166">
-        <v>32.93</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="E166">
-        <v>31.73</v>
+        <v>36.56</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -3251,15 +3255,15 @@
         <v>0.1</v>
       </c>
       <c r="D167">
-        <v>33.31</v>
+        <v>32.409999999999997</v>
       </c>
       <c r="E167">
-        <v>33.299999999999997</v>
+        <v>33.229999999999997</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B168">
         <v>2</v>
@@ -3268,15 +3272,15 @@
         <v>0.1</v>
       </c>
       <c r="D168">
-        <v>32.880000000000003</v>
+        <v>33.659999999999997</v>
       </c>
       <c r="E168">
-        <v>32.89</v>
+        <v>31.93</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B169">
         <v>3</v>
@@ -3285,15 +3289,15 @@
         <v>0.1</v>
       </c>
       <c r="D169">
-        <v>31.85</v>
+        <v>27.65</v>
       </c>
       <c r="E169">
-        <v>33.33</v>
+        <v>29.28</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -3302,15 +3306,15 @@
         <v>0.5</v>
       </c>
       <c r="D170">
-        <v>24.5</v>
+        <v>25.05</v>
       </c>
       <c r="E170">
-        <v>22.85</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B171">
         <v>2</v>
@@ -3319,15 +3323,15 @@
         <v>0.5</v>
       </c>
       <c r="D171">
-        <v>24.61</v>
+        <v>25.77</v>
       </c>
       <c r="E171">
-        <v>24.6</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B172">
         <v>3</v>
@@ -3336,15 +3340,15 @@
         <v>0.5</v>
       </c>
       <c r="D172">
-        <v>24.31</v>
+        <v>25.85</v>
       </c>
       <c r="E172">
-        <v>25.65</v>
+        <v>26.11</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -3353,15 +3357,15 @@
         <v>0.1</v>
       </c>
       <c r="D173">
-        <v>18.53</v>
+        <v>19.72</v>
       </c>
       <c r="E173">
-        <v>19.12</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B174">
         <v>2</v>
@@ -3370,15 +3374,15 @@
         <v>0.1</v>
       </c>
       <c r="D174">
-        <v>19.52</v>
+        <v>21.79</v>
       </c>
       <c r="E174">
-        <v>20.05</v>
+        <v>21.83</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B175">
         <v>3</v>
@@ -3387,15 +3391,15 @@
         <v>0.1</v>
       </c>
       <c r="D175">
-        <v>20.58</v>
+        <v>20.68</v>
       </c>
       <c r="E175">
-        <v>18.93</v>
+        <v>19.78</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -3404,15 +3408,15 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>22.72</v>
+        <v>23.93</v>
       </c>
       <c r="E176">
-        <v>20.85</v>
+        <v>24.92</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B177">
         <v>2</v>
@@ -3421,15 +3425,15 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>22.4</v>
+        <v>24.43</v>
       </c>
       <c r="E177">
-        <v>22.86</v>
+        <v>23.33</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B178">
         <v>3</v>
@@ -3438,15 +3442,15 @@
         <v>1</v>
       </c>
       <c r="D178">
-        <v>20.05</v>
+        <v>21.48</v>
       </c>
       <c r="E178">
-        <v>18.23</v>
+        <v>22.15</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -3463,7 +3467,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -3480,7 +3484,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B181">
         <v>3</v>
@@ -3497,7 +3501,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -3506,15 +3510,15 @@
         <v>0</v>
       </c>
       <c r="D182">
-        <v>29.37</v>
+        <v>39.56</v>
       </c>
       <c r="E182">
-        <v>26.84</v>
+        <v>40.26</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B183">
         <v>2</v>
@@ -3523,43 +3527,43 @@
         <v>0</v>
       </c>
       <c r="D183">
-        <v>26.1</v>
+        <v>41.08</v>
       </c>
       <c r="E183">
-        <v>26.88</v>
+        <v>42.44</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B184">
         <v>3</v>
       </c>
       <c r="C184">
         <v>0</v>
+      </c>
+      <c r="D184">
+        <v>39.99</v>
+      </c>
+      <c r="E184">
+        <v>42.57</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B185">
         <v>1</v>
       </c>
       <c r="C185">
         <v>0.1</v>
-      </c>
-      <c r="D185">
-        <v>27.07</v>
-      </c>
-      <c r="E185">
-        <v>25.62</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B186">
         <v>2</v>
@@ -3568,15 +3572,15 @@
         <v>0.1</v>
       </c>
       <c r="D186">
-        <v>24.73</v>
+        <v>38.369999999999997</v>
       </c>
       <c r="E186">
-        <v>25.98</v>
+        <v>38.840000000000003</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B187">
         <v>3</v>
@@ -3585,15 +3589,15 @@
         <v>0.1</v>
       </c>
       <c r="D187">
-        <v>20.21</v>
+        <v>40.619999999999997</v>
       </c>
       <c r="E187">
-        <v>19.84</v>
+        <v>40.07</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -3602,15 +3606,15 @@
         <v>0.5</v>
       </c>
       <c r="D188">
-        <v>23.69</v>
+        <v>33.04</v>
       </c>
       <c r="E188">
-        <v>23.7</v>
+        <v>32.74</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B189">
         <v>2</v>
@@ -3619,15 +3623,15 @@
         <v>0.5</v>
       </c>
       <c r="D189">
-        <v>21.66</v>
+        <v>31.51</v>
       </c>
       <c r="E189">
-        <v>20.61</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B190">
         <v>3</v>
@@ -3636,15 +3640,15 @@
         <v>0.5</v>
       </c>
       <c r="D190">
-        <v>17.149999999999999</v>
+        <v>32.83</v>
       </c>
       <c r="E190">
-        <v>14.91</v>
+        <v>33.57</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -3653,15 +3657,15 @@
         <v>0.1</v>
       </c>
       <c r="D191">
-        <v>18.61</v>
+        <v>27.44</v>
       </c>
       <c r="E191">
-        <v>18.88</v>
+        <v>26.99</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B192">
         <v>2</v>
@@ -3670,15 +3674,15 @@
         <v>0.1</v>
       </c>
       <c r="D192">
-        <v>19.079999999999998</v>
+        <v>31.44</v>
       </c>
       <c r="E192">
-        <v>18.14</v>
+        <v>32.69</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -3687,15 +3691,15 @@
         <v>0.1</v>
       </c>
       <c r="D193">
-        <v>17.600000000000001</v>
+        <v>24.49</v>
       </c>
       <c r="E193">
-        <v>16.399999999999999</v>
+        <v>24.98</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -3704,15 +3708,15 @@
         <v>1</v>
       </c>
       <c r="D194">
-        <v>20.62</v>
+        <v>30.83</v>
       </c>
       <c r="E194">
-        <v>21.79</v>
+        <v>28.56</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B195">
         <v>2</v>
@@ -3721,15 +3725,15 @@
         <v>1</v>
       </c>
       <c r="D195">
-        <v>17.88</v>
+        <v>27.45</v>
       </c>
       <c r="E195">
-        <v>17.34</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B196">
         <v>3</v>
@@ -3738,15 +3742,15 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>22.2</v>
+        <v>28.11</v>
       </c>
       <c r="E196">
-        <v>19.53</v>
+        <v>28.87</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -3763,7 +3767,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B198">
         <v>2</v>
@@ -3780,7 +3784,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B199">
         <v>3</v>
@@ -3797,7 +3801,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -3806,15 +3810,15 @@
         <v>0</v>
       </c>
       <c r="D200">
-        <v>38.69</v>
+        <v>40.909999999999997</v>
       </c>
       <c r="E200">
-        <v>39.270000000000003</v>
+        <v>41.22</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B201">
         <v>2</v>
@@ -3823,15 +3827,15 @@
         <v>0</v>
       </c>
       <c r="D201">
-        <v>44.39</v>
+        <v>41.78</v>
       </c>
       <c r="E201">
-        <v>45.67</v>
+        <v>41.79</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B202">
         <v>3</v>
@@ -3840,15 +3844,15 @@
         <v>0</v>
       </c>
       <c r="D202">
-        <v>45.53</v>
+        <v>36.26</v>
       </c>
       <c r="E202">
-        <v>42.17</v>
+        <v>37.92</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -3857,15 +3861,15 @@
         <v>0.1</v>
       </c>
       <c r="D203">
-        <v>39.369999999999997</v>
+        <v>33.979999999999997</v>
       </c>
       <c r="E203">
-        <v>38.020000000000003</v>
+        <v>32.74</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B204">
         <v>2</v>
@@ -3874,15 +3878,15 @@
         <v>0.1</v>
       </c>
       <c r="D204">
-        <v>40.47</v>
+        <v>39.729999999999997</v>
       </c>
       <c r="E204">
-        <v>41.28</v>
+        <v>41.81</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B205">
         <v>3</v>
@@ -3891,15 +3895,15 @@
         <v>0.1</v>
       </c>
       <c r="D205">
-        <v>40.380000000000003</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="E205">
-        <v>39.31</v>
+        <v>38.26</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -3908,15 +3912,15 @@
         <v>0.5</v>
       </c>
       <c r="D206">
-        <v>30.59</v>
+        <v>32.39</v>
       </c>
       <c r="E206">
-        <v>31.96</v>
+        <v>28.95</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B207">
         <v>2</v>
@@ -3925,15 +3929,15 @@
         <v>0.5</v>
       </c>
       <c r="D207">
-        <v>33.11</v>
+        <v>33.65</v>
       </c>
       <c r="E207">
-        <v>36.590000000000003</v>
+        <v>34.479999999999997</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B208">
         <v>3</v>
@@ -3942,15 +3946,15 @@
         <v>0.5</v>
       </c>
       <c r="D208">
-        <v>36.01</v>
+        <v>35.18</v>
       </c>
       <c r="E208">
-        <v>36.47</v>
+        <v>34.22</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -3959,15 +3963,15 @@
         <v>0.1</v>
       </c>
       <c r="D209">
-        <v>26.44</v>
+        <v>30.33</v>
       </c>
       <c r="E209">
-        <v>26.14</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -3976,15 +3980,15 @@
         <v>0.1</v>
       </c>
       <c r="D210">
-        <v>30.93</v>
+        <v>26.18</v>
       </c>
       <c r="E210">
-        <v>29.95</v>
+        <v>26.61</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B211">
         <v>3</v>
@@ -3993,15 +3997,15 @@
         <v>0.1</v>
       </c>
       <c r="D211">
-        <v>29.75</v>
+        <v>29.28</v>
       </c>
       <c r="E211">
-        <v>30.81</v>
+        <v>29.35</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -4010,15 +4014,15 @@
         <v>1</v>
       </c>
       <c r="D212">
-        <v>27.39</v>
+        <v>34.450000000000003</v>
       </c>
       <c r="E212">
-        <v>26.3</v>
+        <v>31.34</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B213">
         <v>2</v>
@@ -4027,15 +4031,15 @@
         <v>1</v>
       </c>
       <c r="D213">
-        <v>31.77</v>
+        <v>33.1</v>
       </c>
       <c r="E213">
-        <v>27.28</v>
+        <v>31.02</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B214">
         <v>3</v>
@@ -4044,15 +4048,15 @@
         <v>1</v>
       </c>
       <c r="D214">
-        <v>25.6</v>
+        <v>32.51</v>
       </c>
       <c r="E214">
-        <v>27.34</v>
+        <v>30.32</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -4069,7 +4073,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -4086,7 +4090,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B217">
         <v>3</v>
@@ -4103,7 +4107,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -4112,15 +4116,15 @@
         <v>0</v>
       </c>
       <c r="D218">
-        <v>34.28</v>
+        <v>37.5</v>
       </c>
       <c r="E218">
-        <v>33.880000000000003</v>
+        <v>41.14</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B219">
         <v>2</v>
@@ -4129,15 +4133,15 @@
         <v>0</v>
       </c>
       <c r="D219">
-        <v>39.44</v>
+        <v>39.96</v>
       </c>
       <c r="E219">
-        <v>39.659999999999997</v>
+        <v>38.979999999999997</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B220">
         <v>3</v>
@@ -4146,15 +4150,15 @@
         <v>0</v>
       </c>
       <c r="D220">
-        <v>42.57</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E220">
-        <v>42.58</v>
+        <v>41.87</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -4163,15 +4167,15 @@
         <v>0.1</v>
       </c>
       <c r="D221">
-        <v>35.130000000000003</v>
+        <v>39.35</v>
       </c>
       <c r="E221">
-        <v>33.96</v>
+        <v>39.44</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -4180,15 +4184,15 @@
         <v>0.1</v>
       </c>
       <c r="D222">
-        <v>38.049999999999997</v>
+        <v>40.81</v>
       </c>
       <c r="E222">
-        <v>39.94</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B223">
         <v>3</v>
@@ -4197,15 +4201,15 @@
         <v>0.1</v>
       </c>
       <c r="D223">
-        <v>40.25</v>
+        <v>45.74</v>
       </c>
       <c r="E223">
-        <v>37.700000000000003</v>
+        <v>45.74</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -4214,15 +4218,15 @@
         <v>0.5</v>
       </c>
       <c r="D224">
-        <v>30.97</v>
+        <v>42.41</v>
       </c>
       <c r="E224">
-        <v>31.75</v>
+        <v>42.76</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B225">
         <v>2</v>
@@ -4231,15 +4235,15 @@
         <v>0.5</v>
       </c>
       <c r="D225">
-        <v>32.74</v>
+        <v>44.48</v>
       </c>
       <c r="E225">
-        <v>33.770000000000003</v>
+        <v>44.48</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B226">
         <v>3</v>
@@ -4248,15 +4252,15 @@
         <v>0.5</v>
       </c>
       <c r="D226">
-        <v>32.729999999999997</v>
+        <v>42.81</v>
       </c>
       <c r="E226">
-        <v>30.42</v>
+        <v>42.18</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -4265,15 +4269,15 @@
         <v>0.1</v>
       </c>
       <c r="D227">
-        <v>28.22</v>
+        <v>41.55</v>
       </c>
       <c r="E227">
-        <v>27.44</v>
+        <v>40.299999999999997</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -4282,15 +4286,15 @@
         <v>0.1</v>
       </c>
       <c r="D228">
-        <v>27.83</v>
+        <v>42.62</v>
       </c>
       <c r="E228">
-        <v>27.13</v>
+        <v>42.77</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -4299,15 +4303,15 @@
         <v>0.1</v>
       </c>
       <c r="D229">
-        <v>29.75</v>
+        <v>43.83</v>
       </c>
       <c r="E229">
-        <v>26.14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -4316,15 +4320,15 @@
         <v>1</v>
       </c>
       <c r="D230">
-        <v>26.25</v>
+        <v>39.5</v>
       </c>
       <c r="E230">
-        <v>28.06</v>
+        <v>39.79</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B231">
         <v>2</v>
@@ -4333,15 +4337,15 @@
         <v>1</v>
       </c>
       <c r="D231">
-        <v>33.83</v>
+        <v>41.53</v>
       </c>
       <c r="E231">
-        <v>34.229999999999997</v>
+        <v>41.72</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B232">
         <v>3</v>
@@ -4350,15 +4354,15 @@
         <v>1</v>
       </c>
       <c r="D232">
-        <v>24.03</v>
+        <v>41.82</v>
       </c>
       <c r="E232">
-        <v>23.29</v>
+        <v>41.66</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -4375,7 +4379,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B234">
         <v>2</v>
@@ -4392,7 +4396,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B235">
         <v>3</v>
@@ -4409,7 +4413,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -4418,15 +4422,15 @@
         <v>0</v>
       </c>
       <c r="D236">
-        <v>43.35</v>
+        <v>37.44</v>
       </c>
       <c r="E236">
-        <v>40.72</v>
+        <v>36.93</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B237">
         <v>2</v>
@@ -4435,15 +4439,15 @@
         <v>0</v>
       </c>
       <c r="D237">
-        <v>37.479999999999997</v>
+        <v>32.46</v>
       </c>
       <c r="E237">
-        <v>37.68</v>
+        <v>32.01</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B238">
         <v>3</v>
@@ -4452,15 +4456,15 @@
         <v>0</v>
       </c>
       <c r="D238">
-        <v>28.01</v>
+        <v>33.36</v>
       </c>
       <c r="E238">
-        <v>26.58</v>
+        <v>30.02</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -4469,15 +4473,15 @@
         <v>0.1</v>
       </c>
       <c r="D239">
-        <v>39.82</v>
+        <v>36.28</v>
       </c>
       <c r="E239">
-        <v>39.61</v>
+        <v>36.299999999999997</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B240">
         <v>2</v>
@@ -4486,15 +4490,15 @@
         <v>0.1</v>
       </c>
       <c r="D240">
-        <v>37.270000000000003</v>
+        <v>35.369999999999997</v>
       </c>
       <c r="E240">
-        <v>37.26</v>
+        <v>33.43</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B241">
         <v>3</v>
@@ -4503,15 +4507,15 @@
         <v>0.1</v>
       </c>
       <c r="D241">
-        <v>28.48</v>
+        <v>32.43</v>
       </c>
       <c r="E241">
-        <v>30.31</v>
+        <v>32.26</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -4520,15 +4524,15 @@
         <v>0.5</v>
       </c>
       <c r="D242">
-        <v>31.61</v>
+        <v>24.05</v>
       </c>
       <c r="E242">
-        <v>31.45</v>
+        <v>25.26</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B243">
         <v>2</v>
@@ -4537,15 +4541,15 @@
         <v>0.5</v>
       </c>
       <c r="D243">
-        <v>26.09</v>
+        <v>22.9</v>
       </c>
       <c r="E243">
-        <v>27.22</v>
+        <v>21.37</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B244">
         <v>3</v>
@@ -4554,15 +4558,15 @@
         <v>0.5</v>
       </c>
       <c r="D244">
-        <v>21.88</v>
+        <v>22.78</v>
       </c>
       <c r="E244">
-        <v>22.78</v>
+        <v>18.72</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -4571,15 +4575,15 @@
         <v>0.1</v>
       </c>
       <c r="D245">
-        <v>24.92</v>
+        <v>16.91</v>
       </c>
       <c r="E245">
-        <v>24.6</v>
+        <v>16.920000000000002</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B246">
         <v>2</v>
@@ -4588,15 +4592,15 @@
         <v>0.1</v>
       </c>
       <c r="D246">
-        <v>17.32</v>
+        <v>14.81</v>
       </c>
       <c r="E246">
-        <v>23.6</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B247">
         <v>3</v>
@@ -4605,15 +4609,15 @@
         <v>0.1</v>
       </c>
       <c r="D247">
-        <v>18.78</v>
+        <v>18.739999999999998</v>
       </c>
       <c r="E247">
-        <v>20.440000000000001</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -4622,32 +4626,26 @@
         <v>1</v>
       </c>
       <c r="D248">
-        <v>26.72</v>
+        <v>18.46</v>
       </c>
       <c r="E248">
-        <v>26.72</v>
+        <v>18.11</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B249">
         <v>2</v>
       </c>
       <c r="C249">
         <v>1</v>
-      </c>
-      <c r="D249">
-        <v>23.81</v>
-      </c>
-      <c r="E249">
-        <v>24.84</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B250">
         <v>3</v>
@@ -4656,15 +4654,15 @@
         <v>1</v>
       </c>
       <c r="D250">
-        <v>23.85</v>
+        <v>20.64</v>
       </c>
       <c r="E250">
-        <v>25.52</v>
+        <v>17.190000000000001</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -4681,7 +4679,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B252">
         <v>2</v>
@@ -4698,7 +4696,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B253">
         <v>3</v>
@@ -4715,7 +4713,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -4724,15 +4722,15 @@
         <v>0</v>
       </c>
       <c r="D254">
-        <v>39.56</v>
+        <v>32.729999999999997</v>
       </c>
       <c r="E254">
-        <v>40.26</v>
+        <v>33.43</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B255">
         <v>2</v>
@@ -4741,15 +4739,15 @@
         <v>0</v>
       </c>
       <c r="D255">
-        <v>41.08</v>
+        <v>36.869999999999997</v>
       </c>
       <c r="E255">
-        <v>42.44</v>
+        <v>36.32</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B256">
         <v>3</v>
@@ -4758,26 +4756,32 @@
         <v>0</v>
       </c>
       <c r="D256">
-        <v>39.99</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="E256">
-        <v>42.57</v>
+        <v>34.26</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B257">
         <v>1</v>
       </c>
       <c r="C257">
         <v>0.1</v>
+      </c>
+      <c r="D257">
+        <v>32.4</v>
+      </c>
+      <c r="E257">
+        <v>31.23</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B258">
         <v>2</v>
@@ -4786,15 +4790,15 @@
         <v>0.1</v>
       </c>
       <c r="D258">
-        <v>38.369999999999997</v>
+        <v>30.24</v>
       </c>
       <c r="E258">
-        <v>38.840000000000003</v>
+        <v>29.79</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B259">
         <v>3</v>
@@ -4803,15 +4807,15 @@
         <v>0.1</v>
       </c>
       <c r="D259">
-        <v>40.619999999999997</v>
+        <v>30.36</v>
       </c>
       <c r="E259">
-        <v>40.07</v>
+        <v>31.38</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -4820,15 +4824,15 @@
         <v>0.5</v>
       </c>
       <c r="D260">
-        <v>33.04</v>
+        <v>22.37</v>
       </c>
       <c r="E260">
-        <v>32.74</v>
+        <v>23.18</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B261">
         <v>2</v>
@@ -4837,15 +4841,15 @@
         <v>0.5</v>
       </c>
       <c r="D261">
-        <v>31.51</v>
+        <v>22.93</v>
       </c>
       <c r="E261">
-        <v>31.52</v>
+        <v>23.66</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B262">
         <v>3</v>
@@ -4854,15 +4858,15 @@
         <v>0.5</v>
       </c>
       <c r="D262">
-        <v>32.83</v>
+        <v>22.28</v>
       </c>
       <c r="E262">
-        <v>33.57</v>
+        <v>21.48</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -4871,15 +4875,15 @@
         <v>0.1</v>
       </c>
       <c r="D263">
-        <v>27.44</v>
+        <v>21.75</v>
       </c>
       <c r="E263">
-        <v>26.99</v>
+        <v>19.579999999999998</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B264">
         <v>2</v>
@@ -4888,15 +4892,15 @@
         <v>0.1</v>
       </c>
       <c r="D264">
-        <v>31.44</v>
+        <v>16.91</v>
       </c>
       <c r="E264">
-        <v>32.69</v>
+        <v>17.09</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B265">
         <v>3</v>
@@ -4905,15 +4909,15 @@
         <v>0.1</v>
       </c>
       <c r="D265">
-        <v>24.49</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="E265">
-        <v>24.98</v>
+        <v>17.88</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -4922,15 +4926,15 @@
         <v>1</v>
       </c>
       <c r="D266">
-        <v>30.83</v>
+        <v>20.85</v>
       </c>
       <c r="E266">
-        <v>28.56</v>
+        <v>22.41</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B267">
         <v>2</v>
@@ -4939,15 +4943,15 @@
         <v>1</v>
       </c>
       <c r="D267">
-        <v>27.45</v>
+        <v>20.38</v>
       </c>
       <c r="E267">
-        <v>29.26</v>
+        <v>19.27</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B268">
         <v>3</v>
@@ -4956,15 +4960,15 @@
         <v>1</v>
       </c>
       <c r="D268">
-        <v>28.11</v>
+        <v>17.739999999999998</v>
       </c>
       <c r="E268">
-        <v>28.87</v>
+        <v>18.68</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -4981,7 +4985,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B270">
         <v>2</v>
@@ -4998,7 +5002,7 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B271">
         <v>3</v>
@@ -5015,7 +5019,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -5024,15 +5028,15 @@
         <v>0</v>
       </c>
       <c r="D272">
-        <v>40.909999999999997</v>
+        <v>37.54</v>
       </c>
       <c r="E272">
-        <v>41.22</v>
+        <v>41.17</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B273">
         <v>2</v>
@@ -5041,15 +5045,15 @@
         <v>0</v>
       </c>
       <c r="D273">
-        <v>41.78</v>
+        <v>32.549999999999997</v>
       </c>
       <c r="E273">
-        <v>41.79</v>
+        <v>34.840000000000003</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B274">
         <v>3</v>
@@ -5058,15 +5062,15 @@
         <v>0</v>
       </c>
       <c r="D274">
-        <v>36.26</v>
+        <v>32.93</v>
       </c>
       <c r="E274">
-        <v>37.92</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -5075,15 +5079,15 @@
         <v>0.1</v>
       </c>
       <c r="D275">
-        <v>33.979999999999997</v>
+        <v>33.31</v>
       </c>
       <c r="E275">
-        <v>32.74</v>
+        <v>33.299999999999997</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B276">
         <v>2</v>
@@ -5092,15 +5096,15 @@
         <v>0.1</v>
       </c>
       <c r="D276">
-        <v>39.729999999999997</v>
+        <v>32.880000000000003</v>
       </c>
       <c r="E276">
-        <v>41.81</v>
+        <v>32.89</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B277">
         <v>3</v>
@@ -5109,15 +5113,15 @@
         <v>0.1</v>
       </c>
       <c r="D277">
-        <v>37.700000000000003</v>
+        <v>31.85</v>
       </c>
       <c r="E277">
-        <v>38.26</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -5126,15 +5130,15 @@
         <v>0.5</v>
       </c>
       <c r="D278">
-        <v>32.39</v>
+        <v>24.5</v>
       </c>
       <c r="E278">
-        <v>28.95</v>
+        <v>22.85</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B279">
         <v>2</v>
@@ -5143,15 +5147,15 @@
         <v>0.5</v>
       </c>
       <c r="D279">
-        <v>33.65</v>
+        <v>24.61</v>
       </c>
       <c r="E279">
-        <v>34.479999999999997</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B280">
         <v>3</v>
@@ -5160,15 +5164,15 @@
         <v>0.5</v>
       </c>
       <c r="D280">
-        <v>35.18</v>
+        <v>24.31</v>
       </c>
       <c r="E280">
-        <v>34.22</v>
+        <v>25.65</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -5177,15 +5181,15 @@
         <v>0.1</v>
       </c>
       <c r="D281">
-        <v>30.33</v>
+        <v>18.53</v>
       </c>
       <c r="E281">
-        <v>31.05</v>
+        <v>19.12</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B282">
         <v>2</v>
@@ -5194,15 +5198,15 @@
         <v>0.1</v>
       </c>
       <c r="D282">
-        <v>26.18</v>
+        <v>19.52</v>
       </c>
       <c r="E282">
-        <v>26.61</v>
+        <v>20.05</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B283">
         <v>3</v>
@@ -5211,15 +5215,15 @@
         <v>0.1</v>
       </c>
       <c r="D283">
-        <v>29.28</v>
+        <v>20.58</v>
       </c>
       <c r="E283">
-        <v>29.35</v>
+        <v>18.93</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -5228,15 +5232,15 @@
         <v>1</v>
       </c>
       <c r="D284">
-        <v>34.450000000000003</v>
+        <v>22.72</v>
       </c>
       <c r="E284">
-        <v>31.34</v>
+        <v>20.85</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B285">
         <v>2</v>
@@ -5245,15 +5249,15 @@
         <v>1</v>
       </c>
       <c r="D285">
-        <v>33.1</v>
+        <v>22.4</v>
       </c>
       <c r="E285">
-        <v>31.02</v>
+        <v>22.86</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B286">
         <v>3</v>
@@ -5262,15 +5266,15 @@
         <v>1</v>
       </c>
       <c r="D286">
-        <v>32.51</v>
+        <v>20.05</v>
       </c>
       <c r="E286">
-        <v>30.32</v>
+        <v>18.23</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -5287,7 +5291,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B288">
         <v>2</v>
@@ -5304,7 +5308,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B289">
         <v>3</v>
@@ -5320,7 +5324,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E181" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E181" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E289">
+      <sortCondition ref="A1:A181"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>